--- a/src/main/kotlin/com/example/i18n.xlsx
+++ b/src/main/kotlin/com/example/i18n.xlsx
@@ -79,32 +79,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="4" width="8.0" customWidth="false"/>
-    <col min="2" max="2" style="5" width="8.0" customWidth="false"/>
+    <col min="1" max="1" style="1" width="8.0" customWidth="false"/>
+    <col min="2" max="2" style="3" width="8.0" customWidth="false"/>
+    <col min="3" max="3" style="5" width="8.0" customWidth="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="4">
+      <c r="A1" t="s" s="1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="s" s="5">
+      <c r="A2" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="0">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="3">
         <v>5</v>
       </c>
     </row>

--- a/src/main/kotlin/com/example/i18n.xlsx
+++ b/src/main/kotlin/com/example/i18n.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>zh</t>
   </si>
@@ -30,6 +30,15 @@
   </si>
   <si>
     <t>取消</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cancel</t>
   </si>
 </sst>
 </file>
@@ -66,8 +75,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -79,39 +91,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="1" width="8.0" customWidth="false"/>
-    <col min="2" max="2" style="3" width="8.0" customWidth="false"/>
-    <col min="3" max="3" style="5" width="8.0" customWidth="false"/>
+    <col min="1" max="1" customWidth="false" style="6" width="8.0"/>
+    <col min="2" max="2" customWidth="false" style="5" width="8.0"/>
+    <col min="3" max="3" style="8" width="8.0" customWidth="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="5">
         <v>0</v>
+      </c>
+      <c r="C1" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1">
+      <c r="A2" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>3</v>
+      </c>
+      <c r="C2" t="s" s="8">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1">
+      <c r="A3" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="5">
         <v>5</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/kotlin/com/example/i18n.xlsx
+++ b/src/main/kotlin/com/example/i18n.xlsx
@@ -12,33 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>zh</t>
+    <t>key</t>
   </si>
   <si>
-    <t>key</t>
+    <t>en</t>
+  </si>
+  <si>
+    <t>XG_Public_Cancel</t>
+  </si>
+  <si>
+    <t>cancel</t>
   </si>
   <si>
     <t>XG_Public_OK</t>
   </si>
   <si>
-    <t>确定</t>
+    <t>ok</t>
   </si>
   <si>
-    <t>XG_Public_Cancel</t>
+    <t>zh</t>
   </si>
   <si>
     <t>取消</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cancel</t>
+    <t>确定</t>
   </si>
 </sst>
 </file>
@@ -75,9 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -97,19 +96,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="false" style="6" width="8.0"/>
-    <col min="2" max="2" customWidth="false" style="5" width="8.0"/>
-    <col min="3" max="3" style="8" width="8.0" customWidth="false"/>
+    <col min="1" max="1" style="4" width="8.0" customWidth="false"/>
+    <col min="2" max="2" style="5" width="8.0" customWidth="false"/>
+    <col min="3" max="3" style="7" width="8.0" customWidth="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="5">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s" s="8">
+      <c r="C1" t="s" s="7">
         <v>6</v>
       </c>
     </row>
@@ -120,7 +119,7 @@
       <c r="B2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -131,7 +130,7 @@
       <c r="B3" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" t="s" s="7">
         <v>8</v>
       </c>
     </row>
